--- a/Modello/nuovi modelli/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/Soluzioni-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADDITIVE-MODEL" sheetId="4" r:id="rId1"/>
@@ -2575,6 +2575,18 @@
     <t>0.344061</t>
   </si>
   <si>
+    <t>0.254095</t>
+  </si>
+  <si>
+    <t>0.0303941</t>
+  </si>
+  <si>
+    <t>0.435889</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
     <t>0.0814532</t>
   </si>
   <si>
@@ -2585,18 +2597,6 @@
   </si>
   <si>
     <t>0.334136</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.254095</t>
-  </si>
-  <si>
-    <t>0.0303941</t>
-  </si>
-  <si>
-    <t>0.435889</t>
   </si>
   <si>
     <t>0.0995313</t>
@@ -3275,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13562,7 +13562,7 @@
     <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18695,7 +18695,7 @@
     <col min="29" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23818,7 +23818,7 @@
     <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28941,7 +28941,7 @@
     <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29762,8 +29762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29772,7 +29772,7 @@
     <col min="2" max="38" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>88</v>
@@ -30845,7 +30845,7 @@
         <v>88</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>792</v>
@@ -31285,7 +31285,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>88</v>
@@ -31321,7 +31321,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>88</v>
@@ -32273,7 +32273,7 @@
         <v>88</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>88</v>
@@ -32564,7 +32564,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>88</v>
@@ -32630,7 +32630,7 @@
         <v>88</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>88</v>
@@ -32749,7 +32749,7 @@
         <v>88</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>827</v>
@@ -32909,10 +32909,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>770</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>88</v>
@@ -32987,7 +32987,7 @@
         <v>88</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>830</v>
@@ -34185,10 +34185,10 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>771</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>774</v>
@@ -34209,7 +34209,7 @@
         <v>791</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>794</v>
@@ -34221,7 +34221,7 @@
         <v>800</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>803</v>
@@ -34245,7 +34245,7 @@
         <v>821</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>823</v>
@@ -34254,16 +34254,16 @@
         <v>825</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>828</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC39" s="5" t="s">
         <v>831</v>
@@ -34301,115 +34301,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
@@ -34417,115 +34417,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">

--- a/Modello/nuovi modelli/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/Soluzioni-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
   </bookViews>
@@ -276,12 +276,12 @@
     <definedName name="SBM_DMU_8">'SBM-DUAL'!$I$2:$I$7</definedName>
     <definedName name="SBM_DMU_9">'SBM-DUAL'!$J$2:$J$7</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10223" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19917" uniqueCount="861">
   <si>
     <t>ANSPs</t>
   </si>
@@ -2869,8 +2869,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2916,39 +2916,31 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3272,27 +3264,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="38" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="true" customWidth="true"/>
+    <col min="2" max="5" width="14.21875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="17.44140625" bestFit="true" customWidth="true"/>
+    <col min="7" max="18" width="14.21875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="14.33203125" bestFit="true" customWidth="true"/>
+    <col min="20" max="28" width="14.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="16.5546875" bestFit="true" customWidth="true"/>
+    <col min="30" max="30" width="20.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="38" width="14.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -3524,7 +3516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3640,7 +3632,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3756,7 +3748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -3872,7 +3864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3988,7 +3980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -4104,7 +4096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -4220,7 +4212,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -4336,7 +4328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -4452,7 +4444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -4568,7 +4560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -4684,7 +4676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -4800,7 +4792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -4916,7 +4908,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -5032,7 +5024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5148,7 +5140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -5264,7 +5256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -5380,7 +5372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -5496,7 +5488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -5612,7 +5604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -5728,7 +5720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -5844,7 +5836,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -5960,7 +5952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -6076,7 +6068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -6192,7 +6184,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -6308,7 +6300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -6424,7 +6416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -6540,7 +6532,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -6656,7 +6648,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -6772,7 +6764,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -6888,7 +6880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -7004,7 +6996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -7120,7 +7112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -7236,7 +7228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -7352,7 +7344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -7468,7 +7460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -7584,7 +7576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -7700,7 +7692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -7816,7 +7808,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -7932,7 +7924,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -8048,7 +8040,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -8164,7 +8156,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -8280,7 +8272,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -8396,7 +8388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="B51" s="8" t="s">
         <v>87</v>
       </c>
@@ -8408,38 +8400,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="17.77734375" bestFit="true" customWidth="true"/>
+    <col min="7" max="9" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="11.6640625" bestFit="true" customWidth="true"/>
+    <col min="11" max="14" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="18" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="15.21875" bestFit="true" customWidth="true"/>
+    <col min="20" max="21" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="23" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="25" max="28" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="16.88671875" bestFit="true" customWidth="true"/>
+    <col min="30" max="30" width="19.6640625" bestFit="true" customWidth="true"/>
+    <col min="31" max="35" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="36" max="36" width="15.21875" bestFit="true" customWidth="true"/>
+    <col min="37" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8555,7 +8547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -8671,7 +8663,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -8787,7 +8779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -8903,7 +8895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -9019,7 +9011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -9135,7 +9127,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -9251,7 +9243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -9367,7 +9359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -9483,7 +9475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -9599,7 +9591,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -9715,7 +9707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -9831,7 +9823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9947,7 +9939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -10063,7 +10055,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -10179,7 +10171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -10295,7 +10287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -10411,7 +10403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -10527,7 +10519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -10643,7 +10635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -10759,7 +10751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -10875,7 +10867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -10991,7 +10983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -11107,7 +11099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -11223,7 +11215,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -11339,7 +11331,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -11455,7 +11447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -11571,7 +11563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -11687,7 +11679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -11803,7 +11795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -11919,7 +11911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -12035,7 +12027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -12151,7 +12143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -12267,7 +12259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -12383,7 +12375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -12499,7 +12491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -12615,7 +12607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -12731,7 +12723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -12847,7 +12839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -12963,7 +12955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -13079,7 +13071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -13195,7 +13187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -13311,7 +13303,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -13427,7 +13419,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -13549,20 +13541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13678,7 +13670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -13794,7 +13786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -13910,7 +13902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -14026,7 +14018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -14142,7 +14134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -14258,7 +14250,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -14374,7 +14366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -14490,7 +14482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -14606,7 +14598,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -14722,7 +14714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -14838,7 +14830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -14954,7 +14946,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -15070,7 +15062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -15186,7 +15178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -15302,7 +15294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -15418,7 +15410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -15534,7 +15526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -15650,7 +15642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -15766,7 +15758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -15882,7 +15874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -15998,7 +15990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -16114,7 +16106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -16230,7 +16222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -16346,7 +16338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -16462,7 +16454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -16578,7 +16570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -16694,7 +16686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -16810,7 +16802,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -16926,7 +16918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -17042,7 +17034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -17158,7 +17150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -17274,7 +17266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -17390,7 +17382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -17506,7 +17498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -17622,7 +17614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -17738,7 +17730,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -17854,7 +17846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -17970,7 +17962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -18086,7 +18078,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -18202,7 +18194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -18318,7 +18310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -18434,7 +18426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -18550,7 +18542,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -18672,30 +18664,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="2" max="9" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="11.6640625" bestFit="true" customWidth="true"/>
+    <col min="11" max="13" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="21" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="23" max="24" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="25" max="26" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="29" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18811,7 +18803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -18927,7 +18919,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -19043,7 +19035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -19159,7 +19151,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -19275,7 +19267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -19391,7 +19383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -19507,7 +19499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -19623,7 +19615,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -19739,7 +19731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -19855,7 +19847,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -19971,7 +19963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -20087,7 +20079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -20203,7 +20195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -20319,7 +20311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -20435,7 +20427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -20551,7 +20543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -20667,7 +20659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -20783,7 +20775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -20899,7 +20891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -21015,7 +21007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -21131,7 +21123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -21247,7 +21239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -21363,7 +21355,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -21479,7 +21471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -21595,7 +21587,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -21711,7 +21703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -21827,7 +21819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -21943,7 +21935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -22059,7 +22051,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -22175,7 +22167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -22291,7 +22283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -22407,7 +22399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -22523,7 +22515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -22639,7 +22631,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -22755,7 +22747,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -22871,7 +22863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -22987,7 +22979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -23103,7 +23095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -23219,7 +23211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -23335,7 +23327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -23451,7 +23443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -23567,7 +23559,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -23683,7 +23675,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -23805,20 +23797,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23934,7 +23926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -24050,7 +24042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -24166,7 +24158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -24282,7 +24274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -24398,7 +24390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -24514,7 +24506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -24630,7 +24622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -24746,7 +24738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -24862,7 +24854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -24978,7 +24970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -25094,7 +25086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -25210,7 +25202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -25326,7 +25318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -25442,7 +25434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -25558,7 +25550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -25674,7 +25666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -25790,7 +25782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -25906,7 +25898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -26022,7 +26014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -26138,7 +26130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -26254,7 +26246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -26370,7 +26362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -26486,7 +26478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -26602,7 +26594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -26718,7 +26710,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -26834,7 +26826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -26950,7 +26942,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -27066,7 +27058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -27182,7 +27174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -27298,7 +27290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -27414,7 +27406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -27530,7 +27522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -27646,7 +27638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -27762,7 +27754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -27878,7 +27870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -27994,7 +27986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -28110,7 +28102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -28226,7 +28218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -28342,7 +28334,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -28458,7 +28450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -28574,7 +28566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -28690,7 +28682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -28806,7 +28798,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -28928,20 +28920,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29057,7 +29049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -29173,7 +29165,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -29289,7 +29281,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -29405,7 +29397,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -29521,7 +29513,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -29637,7 +29629,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
@@ -29759,20 +29751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="true" customWidth="true"/>
+    <col min="2" max="38" width="13.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29888,7 +29880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -30004,7 +29996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -30120,7 +30112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -30236,7 +30228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -30352,7 +30344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -30468,7 +30460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -30584,7 +30576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -30700,7 +30692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -30816,7 +30808,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -30932,7 +30924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -31048,7 +31040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -31164,7 +31156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -31280,7 +31272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -31396,7 +31388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -31512,7 +31504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -31628,7 +31620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -31744,7 +31736,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -31860,7 +31852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -31976,7 +31968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -32092,7 +32084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -32208,7 +32200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -32324,7 +32316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -32440,7 +32432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -32556,7 +32548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -32672,7 +32664,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -32788,7 +32780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -32904,7 +32896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -33020,7 +33012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -33136,7 +33128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -33252,7 +33244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -33368,7 +33360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -33484,7 +33476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -33600,7 +33592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -33716,7 +33708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -33832,7 +33824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -33948,7 +33940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -34064,7 +34056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -34180,7 +34172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -34296,7 +34288,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -34412,7 +34404,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -34528,7 +34520,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
